--- a/Arquivos e resultados/6 - Resultados/Analise 1 - Analise Score do modelo.xlsx
+++ b/Arquivos e resultados/6 - Resultados/Analise 1 - Analise Score do modelo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\TCC\TCC II - Everson Leonardi\Projeto\Dados\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\TCC\TCC II - Everson Leonardi\Projeto\ACI40\Arquivos e resultados\6 - Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A61B06-B628-477C-84E5-7874C6EE3802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D07491-49BB-4F50-B8AE-BF43A9D99564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Analise de modelos</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Médias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,12 +421,15 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -440,12 +446,12 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -473,7 +479,7 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -487,7 +493,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -501,7 +507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -515,7 +521,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
@@ -529,7 +535,7 @@
         <v>59.72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -543,7 +549,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -557,7 +563,7 @@
         <v>57.73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -571,7 +577,7 @@
         <v>58.62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -585,7 +591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -599,7 +605,7 @@
         <v>59.55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
